--- a/medicine/Pharmacie/1920_en_santé_et_médecine/1920_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1920_en_santé_et_médecine/1920_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1920_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1920_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1920 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1920_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1920_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,41 +523,43 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>France
-20 janvier : décret portant création d'un sous-secrétariat à l'Hygiène et à la Santé publique[1].
-Janvier : à Marseille, l'hôpital auxiliaire Paul-Desbief, qui deviendra Hôpital européen, est renommé provisoirement hôpital Saint-Louis et constitué en association privée à but non lucratif selon la loi de 1901[2].
-16 avril : la faculté de médecine de Nancy est citée à l'ordre de la Nation[3].
-Mai-novembre : la « peste des chiffonniers » tue à Paris trente-quatre personnes sur les quatre-vingt-seize cas déclarés[4].
-20 mai : Marie Curie reçoit la journaliste américaine Mary Meloney qui, à l'issue de cette entrevue, va lancer un appel à la générosité publique pour l'achat d'un gramme de radium pur, nécessaire à la poursuite des travaux de la chercheuse française[5].
-Juin : ouverture de l'hôpital Léopold-Bellan à Paris[6].
-31 juillet : loi réprimant la complicité et la provocation à l’avortement ainsi que toute propagande anticonceptionnelle[7].
+20 janvier : décret portant création d'un sous-secrétariat à l'Hygiène et à la Santé publique.
+Janvier : à Marseille, l'hôpital auxiliaire Paul-Desbief, qui deviendra Hôpital européen, est renommé provisoirement hôpital Saint-Louis et constitué en association privée à but non lucratif selon la loi de 1901.
+16 avril : la faculté de médecine de Nancy est citée à l'ordre de la Nation.
+Mai-novembre : la « peste des chiffonniers » tue à Paris trente-quatre personnes sur les quatre-vingt-seize cas déclarés.
+20 mai : Marie Curie reçoit la journaliste américaine Mary Meloney qui, à l'issue de cette entrevue, va lancer un appel à la générosité publique pour l'achat d'un gramme de radium pur, nécessaire à la poursuite des travaux de la chercheuse française.
+Juin : ouverture de l'hôpital Léopold-Bellan à Paris.
+31 juillet : loi réprimant la complicité et la provocation à l’avortement ainsi que toute propagande anticonceptionnelle.
 3 août : création par Gaston Roussel, avec les vétérinaires Albert Caldairou et Alfred Lindeboom, de l'Institut de sérothérapie hémopoïétique, devenu par transformation et fusion les laboratoires Roussel-Uclaf.
-11 octobre : ouverture de l'École des infirmières-visiteuses d’hygiène de Marseille[8],[9], devenue Institut de formation en soins infirmiers « La Blancarde »[10].
-20 décembre : centième anniversaire de la fondation de l'Académie de médecine[11].
-Création de l'École dentaire de Beyrouth, rattachée à la faculté française de médecine et de pharmacie, et devenue faculté de médecine dentaire[12].
-À Sotteville-lès-Rouen, les asiles d'aliénés de Quatre-Mares[13] et de Saint-Yon[14], respectivement pour hommes et pour femmes, fusionnent sous le nom de « maison de santé départementale », devenue centre hospitalier du Rouvray[15].
+11 octobre : ouverture de l'École des infirmières-visiteuses d’hygiène de Marseille devenue Institut de formation en soins infirmiers « La Blancarde ».
+20 décembre : centième anniversaire de la fondation de l'Académie de médecine.
+Création de l'École dentaire de Beyrouth, rattachée à la faculté française de médecine et de pharmacie, et devenue faculté de médecine dentaire.
+À Sotteville-lès-Rouen, les asiles d'aliénés de Quatre-Mares et de Saint-Yon, respectivement pour hommes et pour femmes, fusionnent sous le nom de « maison de santé départementale », devenue centre hospitalier du Rouvray.
 Europe
-21 mars-9 avril : Rudolf Steiner donne une série de conférences à Dornach[16] et, tout au long de l'année, à Stuttgart, Bâle, Zurich et Berne.
-Juillet : la philanthrope Émilie Dardenne part pour un voyage d'un an au Congo belge afin d'y préparer la fondation d'une société de la Croix-Rouge[17].
-7-12 août : le 1er congrès de l'histoire de l'art de guérir se tient à la maison médicale d'Anvers sous la présidence de Joseph Tricot-Royer[18],[19].
-Alphonse Broden[20] fonde la Société belge de médecine tropicale, et son organe, les Annales de la Société belge de médecine tropicale devenues, par fusion avec d'autres périodiques, la revue Tropical Medicine and International Health[21],[22].
-Fondation de la revue belge Tropical and Geographical Medicine[22].
-Fondation de l'Association suisse des médecins naturopathes[23].
+21 mars-9 avril : Rudolf Steiner donne une série de conférences à Dornach et, tout au long de l'année, à Stuttgart, Bâle, Zurich et Berne.
+Juillet : la philanthrope Émilie Dardenne part pour un voyage d'un an au Congo belge afin d'y préparer la fondation d'une société de la Croix-Rouge.
+7-12 août : le 1er congrès de l'histoire de l'art de guérir se tient à la maison médicale d'Anvers sous la présidence de Joseph Tricot-Royer,.
+Alphonse Broden fonde la Société belge de médecine tropicale, et son organe, les Annales de la Société belge de médecine tropicale devenues, par fusion avec d'autres périodiques, la revue Tropical Medicine and International Health,.
+Fondation de la revue belge Tropical and Geographical Medicine.
+Fondation de l'Association suisse des médecins naturopathes.
 Fondation de l'Institut psychanalytique de Berlin par Max Eitingon, Karl Abraham et Ernst Simmel.
-Création à Olten, en Suisse, dans le canton de Soleure, de l’association Pro Infirmis[24].
+Création à Olten, en Suisse, dans le canton de Soleure, de l’association Pro Infirmis.
 Afrique
-16 janvier : Ali Ibrahim fonde l'Association médicale égyptienne[25].
+16 janvier : Ali Ibrahim fonde l'Association médicale égyptienne.
 Amérique du Nord
 16 janvier : entrée en vigueur du 18e amendement à la Constitution des États-Unis, ratifié le 29 janvier 1919 et complété par le Volstead Act du 28 octobre 1919, décrétant la prohibition de la consommation, la production, la distribution et la vente de boissons alcoolisées.
-20 mars : fondation à Toronto de l'entreprise pharmaceutique W. K. Bucley limitée[26].
-Royal Rife, ingénieur américain, commence des recherches en électrothérapie qui vont aboutir à la conception d'un « générateur de fréquences » (« frequency generator ») dont l'efficacité n'est toujours par démontrée en 2015[27].
-Le racialiste américain Harry Laughlin (en), promoteur de la stérilisation contrainte, est nommé « expert eugéniste » du comité de la Chambre des représentants chargé des questions d'immigration et de naturalisation, dont les travaux aboutiront à l'Immigration Act de 1924[28].
-La faculté de médecine de la filiale montréalaise de l'université Laval est rattachée à l'université de Montréal[29].
+20 mars : fondation à Toronto de l'entreprise pharmaceutique W. K. Bucley limitée.
+Royal Rife, ingénieur américain, commence des recherches en électrothérapie qui vont aboutir à la conception d'un « générateur de fréquences » (« frequency generator ») dont l'efficacité n'est toujours par démontrée en 2015.
+Le racialiste américain Harry Laughlin (en), promoteur de la stérilisation contrainte, est nommé « expert eugéniste » du comité de la Chambre des représentants chargé des questions d'immigration et de naturalisation, dont les travaux aboutiront à l'Immigration Act de 1924.
+La faculté de médecine de la filiale montréalaise de l'université Laval est rattachée à l'université de Montréal.
 L'hôpital Royal Victoria de Montréal devient centre de recherche de la faculté de médecine de l'université McGill.
 Asie
-Fondation du Tohoku Journal of Experimental Medicine (Tohoku jikken igaku), revue japonaise de sciences médicales, organe de la faculté de médecine de l'université du Tohoku[30].</t>
+Fondation du Tohoku Journal of Experimental Medicine (Tohoku jikken igaku), revue japonaise de sciences médicales, organe de la faculté de médecine de l'université du Tohoku.</t>
         </is>
       </c>
     </row>
@@ -555,7 +569,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1920_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1920_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,9 +587,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Karl Binding et Alfred Hoche, Die Freigabe der Vernichtung lebensunwerten Lebens[31], ouvrage qui promeut « la suppression des vies sans valeur » et dont s'inspirera le programme nazi Aktion T4.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Karl Binding et Alfred Hoche, Die Freigabe der Vernichtung lebensunwerten Lebens, ouvrage qui promeut « la suppression des vies sans valeur » et dont s'inspirera le programme nazi Aktion T4.</t>
         </is>
       </c>
     </row>
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1920_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1920_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Janvier
 6 janvier : John Maynard Smith (mort en 2004), biologiste et généticien britannique.
@@ -719,7 +737,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1920_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1920_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -737,7 +755,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Janvier
 3 janvier : Horatio Wood (né en 1841), médecin et naturaliste américain.
@@ -757,7 +777,7 @@
 6 mars : Max Fürbringer (né en 1846), anatomiste allemand.
 14 mars : Nikolaï Korotkov (né en 1874), médecin russe, pionnier de la chirurgie vasculaire.
 Avril
-7 avril : Karl Binding (né en 1841), juriste allemand, auteur avec le psychiatre Alfred Hoche d'un ouvrage de promotion de l'eugénisme et de l'euthanasie[31].
+7 avril : Karl Binding (né en 1841), juriste allemand, auteur avec le psychiatre Alfred Hoche d'un ouvrage de promotion de l'eugénisme et de l'euthanasie.
 14 avril : Moritz Benedikt (né en 1835), neurologue autrichien.
 20 avril : Dmitri Ivanovski (né en 1864), biologiste et botaniste russe, précurseur de la découverte des virus.
 27 avril : Pierre Broussain (né en 1859), médecin et homme politique français.
@@ -788,7 +808,7 @@
 29 décembre : Alexandre Kermorgant (né en 1843), médecin militaire français.
 Date inconnue
 Jules Margerin (né en 1837), médecin et entrepreneur français.
-Étienne Lombard (né en 1869), médecin ORL et chirurgien français qui a décrit le phénomène éponyme de modification de la prononciation humaine pour compenser la présence de bruits environnants[32].</t>
+Étienne Lombard (né en 1869), médecin ORL et chirurgien français qui a décrit le phénomène éponyme de modification de la prononciation humaine pour compenser la présence de bruits environnants.</t>
         </is>
       </c>
     </row>
